--- a/UnifiedServiceDesk/Case Details/Case Details.rvl.xlsx
+++ b/UnifiedServiceDesk/Case Details/Case Details.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="40">
   <si>
     <t>Flow</t>
   </si>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t>30000</t>
+  </si>
+  <si>
+    <t>GetName</t>
+  </si>
+  <si>
+    <t>GetValue</t>
+  </si>
+  <si>
+    <t>searchWidget_searchTextBox</t>
+  </si>
+  <si>
+    <t>DoSetText</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>searchWidget_findCriteriaButton</t>
+  </si>
+  <si>
+    <t>DoClick</t>
   </si>
 </sst>
 </file>
@@ -129,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="161">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -297,11 +321,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -463,6 +489,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.86328125" customWidth="true"/>
@@ -556,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>7</v>
@@ -600,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>7</v>
@@ -644,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>7</v>
@@ -690,138 +718,131 @@
       <c r="H11" s="72"/>
     </row>
     <row r="12">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="80"/>
+      <c r="A12" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="96"/>
     </row>
     <row r="13">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="88"/>
+      <c r="A13" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
     </row>
     <row r="15">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="112"/>
     </row>
     <row r="16">
-      <c r="A16" s="105"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
     </row>
     <row r="17">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
     </row>
     <row r="18">
-      <c r="A18" s="121"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="128"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="136"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="144"/>
     </row>
     <row r="20">
-      <c r="A20" s="137"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="152"/>
     </row>
     <row r="21">
-      <c r="A21" s="145"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="152"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="153"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="160"/>
     </row>
   </sheetData>
 </worksheet>
